--- a/Resultados/Resultados Finais/comparação.xlsx
+++ b/Resultados/Resultados Finais/comparação.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A8F4E4E-70B1-40A4-9385-CA932BC3AF72}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA3E0C20-6312-4789-91EF-75237BC444C6}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -111,14 +111,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -402,61 +403,62 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="12.7109375" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" customWidth="1"/>
-    <col min="9" max="9" width="11.5703125" customWidth="1"/>
+    <col min="3" max="3" width="7.140625" customWidth="1"/>
+    <col min="5" max="5" width="7.5703125" customWidth="1"/>
+    <col min="6" max="6" width="12" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" customWidth="1"/>
+    <col min="8" max="9" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2" t="s">
+      <c r="C1" s="5"/>
+      <c r="D1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2" t="s">
+      <c r="E1" s="5"/>
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2" t="s">
+      <c r="G1" s="5"/>
+      <c r="H1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2"/>
+      <c r="I1" s="5"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
@@ -464,101 +466,117 @@
       <c r="A3" s="1">
         <v>40</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="3">
         <v>70.985285714285695</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="4">
         <v>673.02857142857101</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="4">
         <v>313.87257140000003</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="4">
         <v>683.88571430000002</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="4">
         <v>609.40185714285701</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="3">
         <v>664.17142857142801</v>
       </c>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
+      <c r="H3" s="4">
+        <v>364.74885710000001</v>
+      </c>
+      <c r="I3" s="4">
+        <v>685.87142859999994</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>60</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="3">
         <v>221.23428571428499</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="4">
         <v>708.75714285714196</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="4">
         <v>766.58142859999998</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="4">
         <v>741.38571430000002</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="4">
         <v>3072.2201428571402</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="3">
         <v>693.2</v>
       </c>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
+      <c r="H4" s="4">
+        <v>2777.480286</v>
+      </c>
+      <c r="I4" s="4">
+        <v>743.82857139999999</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>80</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <v>332.51749856569103</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="4">
         <v>775.52857142857101</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="4">
         <v>1327.2287229999999</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="4">
         <v>818.02857140000003</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="4">
         <v>8356.2823792312101</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="3">
         <v>758.457142857142</v>
       </c>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
+      <c r="H5" s="4">
+        <v>6901.068021</v>
+      </c>
+      <c r="I5" s="4">
+        <v>837.18169820000003</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>100</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="3">
         <v>550.52328571428495</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="4">
         <v>798.65714285714205</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="4">
         <v>2419.2378570000001</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="4">
         <v>865.82857139999999</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="4">
         <v>10973.6095714285</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="3">
         <v>790.38571428571402</v>
       </c>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
+      <c r="H6" s="4">
+        <v>16118.500690000001</v>
+      </c>
+      <c r="I6" s="4">
+        <v>904.80951430000005</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
